--- a/RPG/腳色怪物數值.xlsx
+++ b/RPG/腳色怪物數值.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASZXJOHN\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Python\RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B38C84-C3AB-4FDC-9F5F-DFC9EBB48D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CABD19C-C1DB-40CA-976A-4C6B37FD49F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84F677CF-5182-46D2-888B-1287B6B0B622}"/>
   </bookViews>
   <sheets>
     <sheet name="玩家職業" sheetId="1" r:id="rId1"/>
-    <sheet name="怪物" sheetId="2" r:id="rId2"/>
+    <sheet name="職業技能" sheetId="3" r:id="rId2"/>
+    <sheet name="怪物" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="83">
   <si>
     <t>劍士</t>
   </si>
@@ -51,37 +53,16 @@
     <t>聖騎士</t>
   </si>
   <si>
-    <t>劍鬥士</t>
-  </si>
-  <si>
-    <t>勇者</t>
-  </si>
-  <si>
     <t>炸裂法師</t>
   </si>
   <si>
-    <t>冰火魔導師</t>
-  </si>
-  <si>
-    <t>戰巫</t>
-  </si>
-  <si>
     <t>大祭師</t>
   </si>
   <si>
-    <t>占卜師</t>
-  </si>
-  <si>
-    <t>聖人</t>
-  </si>
-  <si>
     <t>盜賊</t>
   </si>
   <si>
     <t>強盜</t>
-  </si>
-  <si>
-    <t>刺客</t>
   </si>
   <si>
     <t>骷髏劍盾兵</t>
@@ -203,6 +184,221 @@
   </si>
   <si>
     <t>叛軍術士</t>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每級+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滿等</t>
+  </si>
+  <si>
+    <t>滿等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>犧牲聖盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈禱聖劍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成敵方單體1力量傷害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理暜攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>揍我!快!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵方優先攻擊聖騎士</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法術普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成敵方單體0.5智力傷害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10倍智力傷害，但用過後MP耗盡法師死亡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法道具-單體藥瓶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法道具-全體藥瓶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>單體恢復</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全體恢復</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>對己方全體恢復2智力HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>對己方單體恢復2智力HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全體己方物理防禦1.5倍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法術障壁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全體魔防1.5倍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神的憤怒以及悲傷的必殺之拳！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷竊!!!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成對方1.5力量+0.5智力傷害並偷取對方內褲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>體力吸取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成對方1.5力量+0.5智力傷害並回復自身HP、MP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猥褻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猥褻敵方造成敵方攻擊、智力下降2成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP 消耗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神之拳！所謂的神之拳，就是混雜著女神的憤怒以及悲傷的必殺之拳！見者必死！，但對青蛙無效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>揮砍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>躍擊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>給予敵方全體 1 力量 傷害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>給予敵方單體 1.5 力量 傷害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>給敵方單體2力量傷害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>給己方全體1.5智力HP回復或敵方1.5智力HP傷害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>給己方單體1.5智力HP回復或敵方1.5智力HP傷害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光拳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成敵方單體4智力傷害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成敵方單體1.5智力傷害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>射箭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潛行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------------------</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(貓貓會連續攻擊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -261,11 +457,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,93 +787,682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC413981-FCE3-4A36-8710-ED71668B2576}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2:X5" si="0">C2+M2*5</f>
+        <v>170</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AC5" si="1">E2+O2*5</f>
+        <v>28</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>19</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:S11" si="2">C8+W2</f>
+        <v>230</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -678,118 +1472,879 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAB8F07-2411-4836-A5C1-738763D31613}">
-  <dimension ref="A1:A27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A997644-608A-4543-BDFE-A009AA150B8F}">
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="43.75" customWidth="1"/>
+    <col min="5" max="5" width="120.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="2">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="2">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="2">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="2">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="2">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAB8F07-2411-4836-A5C1-738763D31613}">
+  <dimension ref="A1:X28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:V7" si="0">D2+K2*5</f>
+        <v>102</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
